--- a/_files/Address comparison.xlsx
+++ b/_files/Address comparison.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\leon\projects\adin_2022\_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\leon\projects\adin_2022\_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19EFD7EB-90A2-4C1D-B659-DDA87E0F4DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CE9AC8-530B-4E56-A90B-5EA7A3534336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23720" yWindow="1760" windowWidth="13970" windowHeight="20760" xr2:uid="{A2370E4B-7FDE-476B-8DAC-B5982A2EA2B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2370E4B-7FDE-476B-8DAC-B5982A2EA2B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="255">
   <si>
     <t>A11N-7N-201-A103</t>
   </si>
@@ -1152,15 +1152,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7863609-5F86-40DC-B8CF-F8D24DAAA041}">
-  <dimension ref="B2:K256"/>
+  <dimension ref="B2:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>16</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>19</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>33</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>34</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>36</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>37</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>38</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>39</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>40</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>41</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>42</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>43</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>44</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>45</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>46</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>47</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>48</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>49</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>50</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>51</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>52</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>53</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>54</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>55</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>56</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>57</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>58</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>59</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>60</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>61</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>62</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>63</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>64</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>65</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>66</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>67</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>68</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>69</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>70</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>71</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>72</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>73</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>74</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>75</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>76</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>77</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>78</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>79</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>80</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>81</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>82</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>83</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>84</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>85</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>86</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>87</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>88</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>89</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>90</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>91</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>92</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>93</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>94</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>95</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>96</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>97</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>98</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>99</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>100</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>101</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>102</v>
       </c>
@@ -2396,16 +2396,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>103</v>
       </c>
+      <c r="E105" t="s">
+        <v>103</v>
+      </c>
       <c r="H105">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>104</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>105</v>
       </c>
@@ -2429,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>106</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>107</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>108</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>109</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>110</v>
       </c>
@@ -2486,7 +2489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>111</v>
       </c>
@@ -2498,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>112</v>
       </c>
@@ -2510,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>113</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>114</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>115</v>
       </c>
@@ -2546,7 +2549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>116</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>117</v>
       </c>
@@ -2570,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>118</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>119</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>120</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>121</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>122</v>
       </c>
@@ -2630,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>123</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>124</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>125</v>
       </c>
@@ -2666,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>126</v>
       </c>
@@ -2678,7 +2681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>127</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>128</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>129</v>
       </c>
@@ -2714,7 +2717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>130</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>131</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>132</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>133</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>134</v>
       </c>
@@ -2774,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>135</v>
       </c>
@@ -2786,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>136</v>
       </c>
@@ -2798,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>137</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>138</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>139</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>140</v>
       </c>
@@ -2846,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>141</v>
       </c>
@@ -2858,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>142</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>143</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
         <v>144</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>145</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>146</v>
       </c>
@@ -2918,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>147</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>148</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>149</v>
       </c>
@@ -2954,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>150</v>
       </c>
@@ -2966,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>151</v>
       </c>
@@ -2978,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
         <v>152</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>153</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>154</v>
       </c>
@@ -3014,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>155</v>
       </c>
@@ -3026,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
         <v>156</v>
       </c>
@@ -3038,7 +3041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
         <v>157</v>
       </c>
@@ -3050,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
         <v>158</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
         <v>159</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
         <v>160</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
         <v>161</v>
       </c>
@@ -3098,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
         <v>162</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
         <v>163</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
         <v>164</v>
       </c>
@@ -3134,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
         <v>165</v>
       </c>
@@ -3146,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
         <v>166</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
         <v>167</v>
       </c>
@@ -3170,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
         <v>168</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
         <v>169</v>
       </c>
@@ -3194,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
         <v>170</v>
       </c>
@@ -3206,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
         <v>171</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
         <v>172</v>
       </c>
@@ -3227,7 +3230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
         <v>173</v>
       </c>
@@ -3235,11 +3238,11 @@
         <v>173</v>
       </c>
       <c r="H175">
-        <f>IF(B175=E186,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="2:8" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
         <v>174</v>
       </c>
@@ -3247,11 +3250,11 @@
         <v>174</v>
       </c>
       <c r="H176">
-        <f>IF(B176=E175,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
         <v>175</v>
       </c>
@@ -3259,11 +3262,11 @@
         <v>175</v>
       </c>
       <c r="H177">
-        <f>IF(B177=E176,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
         <v>176</v>
       </c>
@@ -3271,11 +3274,11 @@
         <v>176</v>
       </c>
       <c r="H178">
-        <f>IF(B178=E177,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>177</v>
       </c>
@@ -3283,11 +3286,11 @@
         <v>177</v>
       </c>
       <c r="H179">
-        <f>IF(B179=E178,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
         <v>178</v>
       </c>
@@ -3295,71 +3298,71 @@
         <v>178</v>
       </c>
       <c r="H180">
-        <f>IF(B180=E179,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
         <v>179</v>
       </c>
       <c r="E181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H181">
-        <f>IF(B181=E180,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
         <v>180</v>
       </c>
       <c r="E182" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H182">
-        <f>IF(B182=K182,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K182" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
         <v>181</v>
       </c>
       <c r="E183" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H183">
-        <f>IF(B183=K183,0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="K183" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>182</v>
       </c>
+      <c r="E184" t="s">
+        <v>182</v>
+      </c>
       <c r="H184">
-        <f>IF(B184=E181,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>183</v>
       </c>
+      <c r="E185" t="s">
+        <v>183</v>
+      </c>
       <c r="H185">
-        <f>IF(B185=E182,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
         <v>184</v>
       </c>
@@ -3367,47 +3370,47 @@
         <v>184</v>
       </c>
       <c r="H186">
-        <f>IF(B186=E183,0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
         <v>185</v>
       </c>
       <c r="E187" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H187">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
         <v>186</v>
       </c>
       <c r="E188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
         <v>187</v>
       </c>
       <c r="E189" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H189">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
         <v>188</v>
       </c>
@@ -3419,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>189</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>190</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>191</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>192</v>
       </c>
@@ -3467,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>193</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>194</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>195</v>
       </c>
@@ -3503,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
         <v>196</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
         <v>197</v>
       </c>
@@ -3527,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>198</v>
       </c>
@@ -3539,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>199</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>200</v>
       </c>
@@ -3563,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>201</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>202</v>
       </c>
@@ -3587,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>203</v>
       </c>
@@ -3599,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>204</v>
       </c>
@@ -3611,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>205</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>206</v>
       </c>
@@ -3635,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>207</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>208</v>
       </c>
@@ -3659,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>209</v>
       </c>
@@ -3671,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>210</v>
       </c>
@@ -3683,7 +3686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>211</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>212</v>
       </c>
@@ -3707,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>213</v>
       </c>
@@ -3719,79 +3722,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>214</v>
       </c>
-      <c r="E216" t="s">
-        <v>215</v>
-      </c>
       <c r="H216">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>215</v>
       </c>
       <c r="E217" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H217">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>216</v>
       </c>
       <c r="E218" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H218">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>217</v>
       </c>
       <c r="E219" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H219">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>218</v>
       </c>
       <c r="E220" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H220">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>219</v>
       </c>
       <c r="E221" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H221">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>220</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>221</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>222</v>
       </c>
@@ -3827,187 +3827,187 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>223</v>
       </c>
       <c r="E225" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H225">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>224</v>
       </c>
       <c r="E226" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H226">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>225</v>
       </c>
       <c r="E227" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H227">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>226</v>
       </c>
       <c r="E228" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H228">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>227</v>
       </c>
       <c r="E229" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H229">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>228</v>
       </c>
       <c r="E230" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H230">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>229</v>
       </c>
       <c r="E231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H231">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>230</v>
       </c>
       <c r="E232" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H232">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>231</v>
       </c>
       <c r="E233" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H233">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>232</v>
       </c>
       <c r="E234" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H234">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>233</v>
       </c>
       <c r="E235" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H235">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>234</v>
       </c>
       <c r="E236" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H236">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>235</v>
       </c>
       <c r="E237" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H237">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>236</v>
       </c>
       <c r="E238" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H238">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>237</v>
       </c>
       <c r="E239" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H239">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>238</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>239</v>
       </c>
@@ -4031,88 +4031,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>240</v>
       </c>
       <c r="E242" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H242">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>241</v>
       </c>
       <c r="E243" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H243">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>242</v>
       </c>
       <c r="E244" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H244">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>243</v>
       </c>
       <c r="E245" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H245">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>244</v>
       </c>
       <c r="E246" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H246">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>245</v>
       </c>
       <c r="E247" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H247">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>246</v>
       </c>
+      <c r="E248" t="s">
+        <v>246</v>
+      </c>
       <c r="H248">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="2:8" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>247</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>248</v>
       </c>
@@ -4136,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>249</v>
       </c>
@@ -4148,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>250</v>
       </c>
@@ -4160,7 +4163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>251</v>
       </c>
@@ -4172,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>252</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>253</v>
       </c>
@@ -4196,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>254</v>
       </c>
@@ -4206,6 +4209,12 @@
       <c r="H256">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H257">
+        <f>SUM(H2:H256)</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
